--- a/public/download/users-sample.xlsx
+++ b/public/download/users-sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wamp64\www\whitelabel\public\download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C126AD5-E2D5-45CE-905A-4DCAD7FE3D56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01F4967-DAB0-430D-8233-32AF94ACD5B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,15 +22,9 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>shubham</t>
-  </si>
-  <si>
     <t>G.</t>
   </si>
   <si>
-    <t>shubham007@gmail.com</t>
-  </si>
-  <si>
     <t>Status(active=1,Deactive=0)</t>
   </si>
   <si>
@@ -47,6 +41,12 @@
   </si>
   <si>
     <t>Contact</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>xyz@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,34 +417,34 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D2">
         <v>9876543210</v>
